--- a/medicine/Sexualité et sexologie/La_principessa_sul_pisello/La_principessa_sul_pisello.xlsx
+++ b/medicine/Sexualité et sexologie/La_principessa_sul_pisello/La_principessa_sul_pisello.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La principessa sul pisello est une comédie érotique italienne sortie en 1974, réalisée par Piero Regnoli. Le titre du film est trompeur : il ne s'agit pas d'une adaptation de la fable d'Andersen, mais d'une adaptation à la façon des comédies érotiques italiennes des deux fables de Cendrillon et Blanche-Neige.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aux abords d'une ville, à la nuit tombante, un groupe de prostituées attend ses clients, et fait passer le temps en écoutant une vieille amie qui leur raconte des fables.
 La première fable est Cendrillon : sur le même schéma que la fable classique, Cendrillon est rabaissée par une maquerelle qui essaie de placer ses filles, comme les prostituées les plus expertes, tandis qu'elle doit se contenter des tâches ménagères. En effet, le fils d'un richissime propriétaire ne semble pas s'intéresser aux femmes, et pour le détourner de cette déviance, on organise une soirée où seront présentes toutes les prostituées du coin. Cendrillon qui a repéré le jeune homme, pleure de ne pouvoir se rendre à la fête. Elle décide d'essayer quand même et rencontre une fée qui lui donne un carrosse et une belle robe, mais tout disparaîtra à minuit. De fait, Cendrillon arrive au milieu d'une orgie monumentale, où le jeune homme s'ennuie profondément. Tous semblent figés à son arrivée, et elle est immédiatement repérée par celui qu'il faut convertir à l'amour des femmes. Elle essaie de se faire passer pour une prostituée, mais ne convainc pas vraiment son interlocuteur qui s'intéresse d'autant plus à elle. Minuit sonne et elle se retrouve toute nue, mais peut s'échapper en ne laissant sur place qu'une petite culotte. C'est de celle-ci que l'on va se servir pour identifier la femme que désire le jeune homme. Cendrillon est enfermée toute nue dans un réduit par sa maquerelle, mais parvient à s'échapper par la fenêtre, juste au moment où passe son amoureux, qui la reconnaît et auquel elle avoue qu'elle est encore vierge... sur leur étreinte se conclut la fable.
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La principessa sul pisello
 Genre : comédie érotique italienne
@@ -560,7 +576,7 @@
 Maquillage : Gianfranco Mecacci
 Format d'image : Technicolor
 Pays : Italie
-Durée : 96 min. (2.599 mètres)[1]
+Durée : 96 min. (2.599 mètres)
 Année de sortie : 1974
 Distribution en Italie : 20th Century Fox
 Langue originale : italien</t>
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Franca Maresa : la vieille amie qui raconte
 Bruna Cealti : narratrice des deux fables
